--- a/spreadsheet/macrofree/blob_storage_security_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/blob_storage_security_checklist.ja.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>「ストレージの Azure セキュリティ ベースライン」を検討する</t>
+          <t>"ストレージの Azure セキュリティ ベースライン" を検討する</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
@@ -1119,12 +1119,12 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Azure ストレージにプライベート エンドポイントを使用することを検討してください</t>
+          <t>Azure Storage にプライベート エンドポイントを使用することを検討する</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Azure ストレージには既定でパブリック IP アドレスがあり、インターネットに到達できます。プライベート エンドポイントを使用すると、アクセスが必要な Azure コンピューティング リソースにのみ Azure Storage を安全に公開できるため、パブリック インターネットへの露出がなくなります</t>
+          <t>既定では、Azure Storage にはパブリック IP アドレスがあり、インターネットにアクセス可能です。プライベート エンドポイントを使用すると、アクセスが必要な Azure コンピューティング リソースにのみ Azure Storage を安全に公開できるため、パブリック インターネットへの露出を排除できます</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>古いストレージ アカウントが "クラシック デプロイ モデル" を使用していないことを確認する</t>
+          <t>古いストレージ アカウントで "クラシック デプロイ モデル" が使用されていないことを確認する</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>新しく作成されたストレージ アカウントは ARM デプロイ モデルを使用して作成されるため、RBAC、監査などはすべて有効になります。サブスクリプションにクラシック デプロイ モデルの古いストレージ アカウントがないことを確認する</t>
+          <t>新しく作成されたストレージ アカウントは、RBAC や監査などがすべて有効になるように、ARM デプロイ モデルを使用して作成されます。サブスクリプションにクラシック デプロイ モデルの古いストレージ アカウントがないことを確認する</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>すべてのストレージ アカウントに対してマイクロソフト ディフェンダーを有効にする</t>
+          <t>すべてのストレージ アカウントに対して Microsoft Defender を有効にする</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Defender を活用して、疑わしいアクティビティや構成ミスについて学習します。</t>
+          <t>Microsoft Defender を活用して、不審なアクティビティや構成ミスについて学習します。</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1319,12 +1319,12 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>BLOB の "論理的な削除" を無効にする</t>
+          <t>BLOB の '論理的な削除' を無効にする</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>特定の BLOB コンテナーに対して "論理的な削除" を選択的に無効にすることを検討してください (たとえば、機密性、プライバシー、コンプライアンス上の理由など) ために、削除された情報がすぐに削除されるようにアプリケーションで確認する必要がある場合などです。</t>
+          <t>たとえば、機密性、プライバシー、コンプライアンス上の理由などから、削除された情報がすぐに削除されるようにアプリケーションで確認する必要がある場合など、特定の BLOB コンテナーに対して "論理的な削除" を選択的に無効にすることを検討してください。</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>コンテナーの論理的な削除を使用すると、コンテナーを削除した後に回復できます (たとえば、偶発的な削除操作から回復します)。</t>
+          <t>コンテナーの論理的な削除を使用すると、コンテナーが削除された後に回復できます (たとえば、偶発的な削除操作から回復します)。</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>特定の BLOB コンテナーに対して "論理的な削除" を選択的に無効にすることを検討してください (たとえば、機密性、プライバシー、コンプライアンス上の理由など) ために、削除された情報がすぐに削除されるようにアプリケーションで確認する必要がある場合などです。</t>
+          <t>たとえば、機密性、プライバシー、コンプライアンス上の理由などから、削除された情報がすぐに削除されるようにアプリケーションで確認する必要がある場合など、特定の BLOB コンテナーに対して "論理的な削除" を選択的に無効にすることを検討してください。</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントのリソース ロックを有効にする</t>
+          <t>ストレージ アカウントでのリソース ロックの有効化</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>削除前にユーザーに削除ロックを強制的に解除させることで、ストレージ アカウントが誤って削除されないようにします</t>
+          <t>削除前に削除ロックを最初に解除するようにユーザーに強制することで、ストレージ アカウントが誤って削除されないようにします</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>BLOB の "訴訟ホールド" または "時間ベースの保持" ポリシーを検討して、BLOB、コンテナー、またはストレージ アカウントを削除することはできません。「不可能」は実際には「不可能」を意味することに注意してください。ストレージ アカウントに不変の BLOB が含まれている場合、そのストレージ アカウントを "削除" する唯一の方法は、Azure サブスクリプションをキャンセルすることです。</t>
+          <t>BLOB の "訴訟ホールド" または "時間ベースの保持" ポリシーを検討して、BLOB、コンテナー、またはストレージ アカウントを削除できないようにします。「不可能」は実際には「不可能」を意味することに注意してください。ストレージ アカウントに不変の BLOB が含まれる場合、そのストレージ アカウントを "取り除く" 唯一の方法は、Azure サブスクリプションを取り消すことです。</t>
         </is>
       </c>
       <c r="E17" s="21" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントでカスタム ドメイン (ホスト名) を構成する場合は、TLS/HTTPS が必要かどうかを確認してください。その場合は、ストレージ アカウントの前に Azure CDN を配置する必要があります。</t>
+          <t>ストレージ アカウントでカスタム ドメイン (ホスト名) を構成する場合は、TLS/HTTPS が必要かどうかを確認します。その場合は、ストレージ アカウントの前に Azure CDN を配置する必要があります。</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1669,12 +1669,12 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>共有アクセス署名 (SAS) トークンを HTTPS 接続のみに制限する</t>
+          <t>Shared Access Signature (SAS) トークンを HTTPS 接続のみに制限する</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>クライアントが SAS トークンを使用して BLOB データにアクセスするときに HTTPS を要求すると、資格情報の損失のリスクを最小限に抑えるのに役立ちます。</t>
+          <t>クライアントが SAS トークンを使用して BLOB データにアクセスするときに HTTPS を要求すると、資格情報が失われるリスクを最小限に抑えることができます。</t>
         </is>
       </c>
       <c r="E20" s="21" t="inlineStr">
@@ -1714,17 +1714,17 @@
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>BLOB へのアクセスに Azure Active Directory (Azure AD) トークンを使用する</t>
+          <t>BLOB アクセスに Azure Active Directory (Azure AD) トークンを使用する</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>可能な限り、AAD トークンは共有アクセス署名よりも優先する必要があります</t>
+          <t>AAD トークンは、可能な限り、共有アクセス署名よりも優先する必要があります</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1764,17 +1764,17 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>IaM アクセス許可の最小権限</t>
+          <t>IaM アクセス許可の最小特権</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>ユーザー、グループ、またはアプリケーションにロールを割り当てる場合は、そのセキュリティ プリンシパルに、タスクを実行するために必要なアクセス許可のみを付与します。リソースへのアクセスを制限すると、データの意図しない誤用と悪意のある誤用の両方を防ぐのに役立ちます。</t>
+          <t>ユーザー、グループ、またはアプリケーションにロールを割り当てる場合は、タスクの実行に必要なアクセス許可のみをセキュリティ プリンシパルに付与します。リソースへのアクセスを制限することで、意図しないデータの誤用と悪意のあるデータの誤用の両方を防ぐことができます。</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
@@ -1860,17 +1860,17 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウント キーを無効にして、AAD アクセス (およびユーザー委任 SAS) のみがサポートされるようにします。</t>
+          <t>ストレージ アカウント キーを無効にして、AAD アクセス (およびユーザー委任 SAS) のみがサポートされるようにすることを検討してください。</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウント キー ("共有キー") には、監査機能がほとんどありません。誰が/いつキーのコピーをフェッチしたかを監視することはできますが、キーが複数の人の手に渡ると、特定のユーザーに使用を帰属させることは不可能です。AAD 認証のみに依存すると、ストレージ アクセスをユーザーに簡単に結び付けることができます。</t>
+          <t>ストレージ アカウント キー ("共有キー") には、監査機能がほとんどありません。誰がいつキーのコピーを取得したかを監視できますが、キーが複数の人の手に渡ると、使用状況を特定のユーザーに帰属させることは不可能です。AAD 認証のみに依存することで、ストレージへのアクセスをユーザーに結び付けやすくなります。</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor を使用してストレージ アカウントでのコントロール プレーン操作を監査することを検討してください</t>
+          <t>Azure Monitor を使用して、ストレージ アカウントに対するコントロール プレーン操作を監査することを検討してください</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>アクティビティ ログ データを使用して、ストレージ アカウントのセキュリティが "いつ"、"誰が"、"何を"、"どのように" 表示または変更されているか (ストレージ アカウント キー、アクセス ポリシーなど) を特定します。</t>
+          <t>アクティビティ ログ データを使用して、ストレージ アカウントのセキュリティ (ストレージ アカウント キー、アクセス ポリシーなど) が "いつ、誰が、何を、"どのように" 表示または変更されているかを特定します。</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>キーの有効期限ポリシーを使用すると、アカウントアクセスキーのローテーションのリマインダーを設定できます。指定した間隔が経過し、キーがまだローテーションされていない場合、リマインダーが表示されます。</t>
+          <t>キーの有効期限ポリシーを使用すると、アカウントアクセスキーのローテーションのリマインダーを設定できます。リマインダーは、指定した間隔が経過し、キーがまだローテーションされていない場合に表示されます。</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>SAS 有効期限ポリシーは、SAS の有効期間を指定するものです。SAS 有効期限ポリシーは、サービス SAS またはアカウント SAS に適用されます。ユーザーが推奨間隔よりも長い有効期間を持つサービス SAS またはアカウント SAS を生成すると、警告が表示されます。</t>
+          <t>SAS 有効期限ポリシーでは、SAS が有効である推奨間隔を指定します。SAS 有効期限ポリシーは、サービス SAS またはアカウント SAS に適用されます。ユーザーがサービス SAS またはアカウント SAS を、推奨間隔よりも長い有効期間で生成すると、警告が表示されます。</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -2059,17 +2059,17 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>SAS を保存されているアクセス ポリシーにリンクすることを検討する</t>
+          <t>保存されているアクセス ポリシーに SAS をリンクすることを検討する</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>保存されているアクセス ポリシーを使用すると、ストレージ アカウント キーを再生成しなくても、サービス SAS のアクセス許可を取り消すことができます。</t>
+          <t>保存されているアクセス ポリシーを使用すると、ストレージ アカウント キーを再生成することなく、サービス SAS のアクセス許可を取り消すことができます。</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>CI/CD</t>
+          <t>CI/CDの</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
@@ -2153,17 +2153,17 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>接続文字列を Azure KeyVault に格納することを検討してください (マネージド ID が不可能なシナリオの場合)</t>
+          <t>接続文字列を Azure KeyVault に格納することを検討する (マネージド ID が不可能なシナリオの場合)</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>理想的には、アプリケーションでマネージド ID を使用して Azure Storage に対する認証を行う必要があります。それが不可能な場合は、Azure KeyVault または同等のサービスにストレージ資格情報 (接続文字列、ストレージ アカウント キー、SAS、サービス プリンシパル資格情報) を含めることを検討してください。</t>
+          <t>理想的には、アプリケーションでマネージド ID を使用して Azure Storage に対する認証を行う必要があります。それが不可能な場合は、ストレージ資格情報 (接続文字列、ストレージ アカウント キー、SAS、サービス プリンシパル資格情報) を Azure KeyVault または同等のサービスに用意することを検討してください。</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
@@ -2202,17 +2202,17 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>アドホックSASの有効期間を短くするよう努める</t>
+          <t>アドホックSASの有効期間を短くする</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>アドホック SAS サービス SAS またはアカウント SAS で短期的な有効期限を使用します。このように、SAS が侵害された場合でも、有効期間は短時間です。この方法は、保存されているアクセス ポリシーを参照できない場合に特に重要です。また、有効期限が近いと、BLOB へのアップロードに使用できる時間が制限されるため、BLOB に書き込むことができるデータの量も制限されます。</t>
+          <t>アドホック SAS サービス SAS またはアカウント SAS で、有効期限が近づいています。このように、SAS が侵害された場合でも、有効期間は短時間です。この方法は、保存されているアクセス ポリシーを参照できない場合に特に重要です。また、有効期限が近いと、BLOB にアップロードできる時間が制限されるため、BLOB に書き込めるデータの量も制限されます。</t>
         </is>
       </c>
       <c r="E31" s="21" t="inlineStr">
@@ -2251,17 +2251,17 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>狭いスコープを SAS に適用する</t>
+          <t>SAS に狭いスコープを適用する</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>SAS を作成するときは、できるだけ具体的かつ制限的にしてください。より広範なアクセスを提供する SAS よりも、単一のリソースと操作に対して SAS を優先します。</t>
+          <t>SAS を作成するときは、できるだけ具体的かつ制限的にしてください。1 つのリソースと操作には、より広範なアクセスを提供する SAS よりも SAS を優先します。</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -2301,17 +2301,17 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>可能な限り、SAS を特定のクライアント IP アドレスにスコープすることを検討してください</t>
+          <t>可能な限り、SAS のスコープを特定のクライアント IP アドレスに設定することを検討してください</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>SAS には、クライアント IP アドレスまたはアドレス範囲が SAS を使用してリソースを要求することを承認されるパラメーターを含めることができます。</t>
+          <t>SAS には、SAS を使用してリソースを要求する権限をクライアント IP アドレスまたはアドレス範囲に与えるパラメーターを含めることができます。</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>SAS では、クライアントがアップロードするデータの量を制限できません。時間の経過に伴うストレージ量の価格設定モデルを考えると、クライアントが悪意を持って大きなコンテンツをアップロードしたかどうかを検証することは理にかなっているかもしれません。</t>
+          <t>SAS は、クライアントがアップロードするデータの量を制限できません。時間の経過に伴うストレージ容量の価格モデルを考えると、クライアントが悪意を持って大きなコンテンツをアップロードしたかどうかを検証することは理にかなっているかもしれません。</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>SFTP: SFTP アクセスの "ローカル ユーザー" の数を制限し、時間の経過と共にアクセスが必要かどうかを監査します。</t>
+          <t>SFTP: SFTPアクセスの「ローカルユーザー」の数を制限し、時間の経過とともにアクセスが必要かどうかを監査します。</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>"ローカル ユーザー アカウント" を使用して SFTP 経由で BLOB ストレージにアクセスする場合、"通常の" RBAC コントロールは適用されません。NFS または REST 経由の BLOB アクセスは、SFTP アクセスよりも制限が厳しい場合があります。残念ながら、2023年初頭の時点で、SFTPエンドポイントで現在サポートされているID管理の唯一の形式はローカルユーザーです</t>
+          <t>"ローカル ユーザー アカウント" を使用して SFTP 経由で BLOB ストレージにアクセスする場合、"通常の" RBAC 制御は適用されません。NFS または REST 経由の BLOB アクセスは、SFTP アクセスよりも制限が厳しい場合があります。残念ながら、2023 年初頭の時点で、SFTP エンドポイントで現在サポートされている ID 管理の形式はローカル ユーザーだけです</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>SFTP: SFTP エンドポイントは、POSIX のような ACL をサポートしていません。</t>
+          <t>SFTP: SFTP エンドポイントは、POSIX ライクな ACL をサポートしていません。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>ストレージは、CORS (クロスオリジンリソース共有)、つまり、異なるドメインのウェブアプリが同一オリジンポリシーを緩和できるようにするHTTP機能をサポートしています。CORS を有効にする場合は、CorsRules を最小限の特権に保ちます。</t>
+          <t>ストレージは、CORS (Cross-Origin Resource Sharing)、つまり、異なるドメインの Web アプリが同一生成元ポリシーを緩めることを可能にする HTTP 機能をサポートしています。CORS を有効にする場合は、CorsRules を最小の特権に保ちます。</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
@@ -2548,12 +2548,12 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>保存データの暗号化方法を決定します。データのスレッド モデルを理解する。</t>
+          <t>保存データの暗号化方法を決定します。データのスレッド モデルを理解します。</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>保存データは常にサーバー側で暗号化され、さらにクライアント側でも暗号化される場合があります。サーバー側の暗号化は、プラットフォーム マネージド キー (既定) またはカスタマー マネージド キーを使用して行われる場合があります。クライアント側の暗号化は、クライアントが BLOB ごとに暗号化/暗号化解除キーを Azure Storage に提供するか、クライアント側で暗号化を完全に処理することによって行われます。したがって、機密性の保証のためにAzureストレージにまったく依存しません。</t>
+          <t>保存データは常にサーバー側で暗号化され、さらにクライアント側でも暗号化される場合があります。サーバー側の暗号化は、プラットフォーム マネージド キー (既定) またはカスタマー マネージド キーを使用して行われる場合があります。クライアント側の暗号化は、クライアントが BLOB ごとに暗号化/暗号化解除キーを Azure Storage に提供するか、クライアント側で暗号化を完全に処理することによって行われます。そのため、機密性の保証を Azure Storage にまったく依存しません。</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>使用するプラットフォーム暗号化を決定します。</t>
+          <t>どのプラットフォーム暗号化を使用するか、または使用するかを決定します。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t>Resource Graph エクスプローラー (リソース | type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) を利用して、匿名 BLOB アクセスを許可するストレージ アカウントを検索します。</t>
+          <t>Resource Graph エクスプローラー (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) を利用して、匿名 BLOB アクセスを許可するストレージ アカウントを検索します。</t>
         </is>
       </c>
       <c r="E41" s="21" t="inlineStr">
@@ -7033,12 +7033,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>このチェックに関連付けられているアクションアイテムがあります</t>
+          <t>このチェックにはアクションアイテムが関連付けられています</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
+          <t>このチェックは検証済みで、これ以上のアクションアイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -7099,7 +7099,7 @@
     <row r="6">
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>必須ではありません</t>
+          <t>必要なし</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -7109,7 +7109,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>必須ではありません</t>
+          <t>必要なし</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
